--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Names</t>
   </si>
@@ -32,6 +32,24 @@
   </si>
   <si>
     <t>bsroy309@gmail.com</t>
+  </si>
+  <si>
+    <t>Munna anna</t>
+  </si>
+  <si>
+    <t>2022EE12115</t>
+  </si>
+  <si>
+    <t>umpriyatam@gmail.com</t>
+  </si>
+  <si>
+    <t>teddy</t>
+  </si>
+  <si>
+    <t>2022CS11593</t>
+  </si>
+  <si>
+    <t>rahulreddymandala2003@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -39,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -64,21 +82,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,6 +95,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -137,61 +155,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,17 +418,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,7 +446,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,6 +477,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -468,30 +510,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -502,142 +520,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,11 +665,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,7 +997,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1003,16 +1024,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:3">
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" display="email-id" tooltip="mailto:bsroy309@gmail.com"/>
     <hyperlink ref="C2" r:id="rId1" display="bsroy309@gmail.com" tooltip="mailto:bsroy309@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="umpriyatam@gmail.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="rahulreddymandala2003@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/sheet.xlsx
+++ b/sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="727">
   <si>
     <t>Names</t>
   </si>
@@ -25,31 +25,2176 @@
     <t>email-id</t>
   </si>
   <si>
-    <t>SIDDHU ROY</t>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Renati Jyothika</t>
+  </si>
+  <si>
+    <t>2023AM10835</t>
+  </si>
+  <si>
+    <t>itsjyothikarenati@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volla Jayathi </t>
+  </si>
+  <si>
+    <t>2020MT60897</t>
+  </si>
+  <si>
+    <t>jayathivolla1@gmail.com</t>
+  </si>
+  <si>
+    <t>Honeysh</t>
+  </si>
+  <si>
+    <t>2021CE10057</t>
+  </si>
+  <si>
+    <t>honeyshoasis@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.Sumanth </t>
+  </si>
+  <si>
+    <t>2021EE10153</t>
+  </si>
+  <si>
+    <t>greatgodlanx@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sowmya Puvvula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022cs11622 </t>
+  </si>
+  <si>
+    <t>puvvulasowmya3@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanchanagiri Alekhya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020EE10565 </t>
+  </si>
+  <si>
+    <t>alekhya.vanchanagiri@gmail.com</t>
+  </si>
+  <si>
+    <t>Saikiran donkana</t>
+  </si>
+  <si>
+    <t>2022JCS2660</t>
+  </si>
+  <si>
+    <t>saikirandonkana2660@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohan </t>
+  </si>
+  <si>
+    <t>2021CH70468</t>
+  </si>
+  <si>
+    <t>eshlavathmohannayak@gmail.com</t>
+  </si>
+  <si>
+    <t>Shashank Krishna Vempati</t>
+  </si>
+  <si>
+    <t>2022AIY7509</t>
+  </si>
+  <si>
+    <t>vempatishashankbzy@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aderla Reshma </t>
+  </si>
+  <si>
+    <t>2022TT11362</t>
+  </si>
+  <si>
+    <t>venny1627@gmail.com</t>
+  </si>
+  <si>
+    <t>Rashmitha</t>
+  </si>
+  <si>
+    <t>2022CH72213</t>
+  </si>
+  <si>
+    <t>rashmithajadhav2004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Chandu Prakash </t>
+  </si>
+  <si>
+    <t>2022CET2435</t>
+  </si>
+  <si>
+    <t>prakashchandu1601@gmail.com</t>
+  </si>
+  <si>
+    <t>Aiswarya Donthi</t>
+  </si>
+  <si>
+    <t>2022SMF6556</t>
+  </si>
+  <si>
+    <t>daaishwarya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kethavath Charantej Rathod </t>
+  </si>
+  <si>
+    <t>2021CH10025</t>
+  </si>
+  <si>
+    <t>charantejrathod121.as@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P Yogananda </t>
+  </si>
+  <si>
+    <t>2022CYM2047</t>
+  </si>
+  <si>
+    <t>yoganandapeteti99@gmail.com</t>
+  </si>
+  <si>
+    <t>Micheal Disouza</t>
+  </si>
+  <si>
+    <t>2022PHS7192</t>
+  </si>
+  <si>
+    <t>rmd179@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avs Bharguav </t>
+  </si>
+  <si>
+    <t>2022JOP2596</t>
+  </si>
+  <si>
+    <t>avsbharguav2000@gmail.com</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021CS10102 </t>
+  </si>
+  <si>
+    <t>hemanthkrishna965@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M Bharat Abhishek </t>
+  </si>
+  <si>
+    <t>2020AM10655</t>
+  </si>
+  <si>
+    <t>abhibharat.29@gmail.com</t>
+  </si>
+  <si>
+    <t>Datti Ganapathi</t>
+  </si>
+  <si>
+    <t>2021AMZ8554</t>
+  </si>
+  <si>
+    <t>ganapathidatti0@gmail.com</t>
+  </si>
+  <si>
+    <t>SRI HARSHA DORAPUDI</t>
+  </si>
+  <si>
+    <t>2020MEZ8831</t>
+  </si>
+  <si>
+    <t>ramji.07@gmail.com</t>
+  </si>
+  <si>
+    <t>S Harsha Vardhan</t>
+  </si>
+  <si>
+    <t>2020CS10390</t>
+  </si>
+  <si>
+    <t>harsha.somisetty01@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vigneshwar </t>
+  </si>
+  <si>
+    <t>2020CS10344</t>
+  </si>
+  <si>
+    <t>vigneshwardoodipala@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nallapu Vyas </t>
+  </si>
+  <si>
+    <t>2023mep2135</t>
+  </si>
+  <si>
+    <t>nallapuvyas@gmail.com</t>
+  </si>
+  <si>
+    <t>AMITI.PRIYANKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022CS11614 </t>
+  </si>
+  <si>
+    <t>priyankaamiti123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hari Charan </t>
+  </si>
+  <si>
+    <t>2021CS10092</t>
+  </si>
+  <si>
+    <t>charangurram08@gmail.com</t>
+  </si>
+  <si>
+    <t>Shiva Krishna Sagi</t>
+  </si>
+  <si>
+    <t>2020CS50441</t>
+  </si>
+  <si>
+    <t>shiva.sagi820@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THAMATAM SAI SIMHA BRUHADEESWAR REDDY </t>
+  </si>
+  <si>
+    <t>2022CS11600</t>
+  </si>
+  <si>
+    <t>saibruhadeeswar@gmail.com</t>
+  </si>
+  <si>
+    <t>Siva Prasad Vanum</t>
+  </si>
+  <si>
+    <t>2023ASZ8215</t>
+  </si>
+  <si>
+    <t>sivavanum@gmail.com</t>
+  </si>
+  <si>
+    <t>Anirudh</t>
+  </si>
+  <si>
+    <t>2021ES10194</t>
+  </si>
+  <si>
+    <t>anirudhbanoth04@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premchand Nuthi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022MSP2752 </t>
+  </si>
+  <si>
+    <t>c3007561@gmail.com</t>
+  </si>
+  <si>
+    <t>Rachaprolu shreja</t>
+  </si>
+  <si>
+    <t>2022CS51145</t>
+  </si>
+  <si>
+    <t>rachaprolushreja555@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malavathu Yaswitha </t>
+  </si>
+  <si>
+    <t>2022CS11634</t>
+  </si>
+  <si>
+    <t>ymalavathu@gmail.com</t>
+  </si>
+  <si>
+    <t>Uppuluri Meher priyatam (munna)</t>
+  </si>
+  <si>
+    <t>2022ees2077</t>
+  </si>
+  <si>
+    <t>jinnarun123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reshmitha </t>
+  </si>
+  <si>
+    <t>2023EE10027</t>
+  </si>
+  <si>
+    <t>vallurureshmitha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hari charani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023CS10647 </t>
+  </si>
+  <si>
+    <t>haricharanigangula@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashwitharathod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022CH11475 </t>
+  </si>
+  <si>
+    <t>ashwitharathod29@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B JATHIN </t>
+  </si>
+  <si>
+    <t>2023MT60997</t>
+  </si>
+  <si>
+    <t>jathinbanavathu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maddukuri jetendra pavan sai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022EE11167 </t>
+  </si>
+  <si>
+    <t>jetendra.maddukuri18@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson </t>
+  </si>
+  <si>
+    <t>2020TT11137</t>
+  </si>
+  <si>
+    <t>johnsonjohnny624@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muvva Srija </t>
+  </si>
+  <si>
+    <t>2020EE30605</t>
+  </si>
+  <si>
+    <t>muvvasrija@gmail.com</t>
+  </si>
+  <si>
+    <t>Meghana</t>
+  </si>
+  <si>
+    <t>2021ES10778</t>
+  </si>
+  <si>
+    <t>meghananakka04@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valla Chaitanya Krishna </t>
+  </si>
+  <si>
+    <t>2020EE10564</t>
+  </si>
+  <si>
+    <t>chaitanyakrishnavalla007@gmail.com</t>
+  </si>
+  <si>
+    <t>S.Dileep Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022CS11619 </t>
+  </si>
+  <si>
+    <t>dileepdk2399@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anjalikurra </t>
+  </si>
+  <si>
+    <t>2023CS50429</t>
+  </si>
+  <si>
+    <t>anjalikurra2416@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K. Pavan Kumar </t>
+  </si>
+  <si>
+    <t>2022CET2430</t>
+  </si>
+  <si>
+    <t>pavankumarcivil25@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omprakash Mamillapalli </t>
+  </si>
+  <si>
+    <t>2021MT10242</t>
+  </si>
+  <si>
+    <t>prakashmamillapalli.2634@gmail.com</t>
+  </si>
+  <si>
+    <t>T V V SAANDEEP</t>
+  </si>
+  <si>
+    <t>2022ESN2742</t>
+  </si>
+  <si>
+    <t>saandeepdeepu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lalam Sai Jahnavi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023EE10780 </t>
+  </si>
+  <si>
+    <t>saijahnavilalam@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajasekhar Reddy</t>
+  </si>
+  <si>
+    <t>2023AIB2066</t>
+  </si>
+  <si>
+    <t>raj3sekhar108@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deeksha Manukonda </t>
+  </si>
+  <si>
+    <t>2022CS11606</t>
+  </si>
+  <si>
+    <t>deekshamanukonda2004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munnangi Sai Spoorthi </t>
+  </si>
+  <si>
+    <t>2022CS11613</t>
+  </si>
+  <si>
+    <t>saispoorthimunnangi2005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konapala Manoj </t>
+  </si>
+  <si>
+    <t>2022CET2437</t>
+  </si>
+  <si>
+    <t>manojkonapala11@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahesh Kumar </t>
+  </si>
+  <si>
+    <t>2022CS11081</t>
+  </si>
+  <si>
+    <t>vmk2335@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akhshitha </t>
+  </si>
+  <si>
+    <t>2022MS11913</t>
+  </si>
+  <si>
+    <t>akshu.rathod2005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhyeya Vakkalagadda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022CS11073 </t>
+  </si>
+  <si>
+    <t>dhyeyav113@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meghana Punyamanthula </t>
+  </si>
+  <si>
+    <t>2023MT11176</t>
+  </si>
+  <si>
+    <t>punyamanthulameghana@gmail.com</t>
+  </si>
+  <si>
+    <t>Talluri  RS Bhavagni</t>
+  </si>
+  <si>
+    <t>2022MT11949</t>
+  </si>
+  <si>
+    <t>bhavagnitrs9999@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahul Reddy </t>
+  </si>
+  <si>
+    <t>2022CS11593</t>
+  </si>
+  <si>
+    <t>rahulreddymandala2003@gmail.com</t>
+  </si>
+  <si>
+    <t>V.Vinay Bhaskar</t>
+  </si>
+  <si>
+    <t>2020CS10405</t>
+  </si>
+  <si>
+    <t>varadavinaybhaskar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niranjan Tagore </t>
+  </si>
+  <si>
+    <t>2021EE10164</t>
+  </si>
+  <si>
+    <t>repudiniranjantagore@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhyri Siddhartha Roy </t>
   </si>
   <si>
     <t>2022CS11105</t>
   </si>
   <si>
-    <t>bsroy309@gmail.com</t>
-  </si>
-  <si>
-    <t>Munna anna</t>
-  </si>
-  <si>
-    <t>2022EE12115</t>
-  </si>
-  <si>
-    <t>umpriyatam@gmail.com</t>
-  </si>
-  <si>
-    <t>teddy</t>
-  </si>
-  <si>
-    <t>2022CS11593</t>
-  </si>
-  <si>
-    <t>rahulreddymandala2003@gmail.com</t>
+    <t>bsroy475@gmail.com</t>
+  </si>
+  <si>
+    <t>G.Anudeep</t>
+  </si>
+  <si>
+    <t>2022CS11617</t>
+  </si>
+  <si>
+    <t>gannojuanudeep@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aadarsh </t>
+  </si>
+  <si>
+    <t>2023ESN2361</t>
+  </si>
+  <si>
+    <t>dimpuden@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pola Venkata Revanth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022CS51650 </t>
+  </si>
+  <si>
+    <t>pvrevanth04@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karthik Namburu </t>
+  </si>
+  <si>
+    <t>2020CS10362</t>
+  </si>
+  <si>
+    <t>namburukarthik060@gmail.com</t>
+  </si>
+  <si>
+    <t>Saisrishanth</t>
+  </si>
+  <si>
+    <t>2023CS50696</t>
+  </si>
+  <si>
+    <t>srishanth11.photo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basani Tharuni </t>
+  </si>
+  <si>
+    <t>2020MT10793</t>
+  </si>
+  <si>
+    <t>basanitharunireddy20@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallavi </t>
+  </si>
+  <si>
+    <t>2023TT10892</t>
+  </si>
+  <si>
+    <t>rathodrajeshwari169@gmail.com</t>
+  </si>
+  <si>
+    <t>Prasun Nayak</t>
+  </si>
+  <si>
+    <t>2020MT10830</t>
+  </si>
+  <si>
+    <t>prasun.nayak4@gmail.com</t>
+  </si>
+  <si>
+    <t>Tejavathu Jasmitha</t>
+  </si>
+  <si>
+    <t>2023CS10032</t>
+  </si>
+  <si>
+    <t>jasmitha02435@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divya Haasini Kathula </t>
+  </si>
+  <si>
+    <t>2023CS10958</t>
+  </si>
+  <si>
+    <t>divyahaasinikathula@gmail.com</t>
+  </si>
+  <si>
+    <t>keerthana Jatoth</t>
+  </si>
+  <si>
+    <t>2022cs51148</t>
+  </si>
+  <si>
+    <t>harjijatoth@gmail.com</t>
+  </si>
+  <si>
+    <t>Vamshi Vangala</t>
+  </si>
+  <si>
+    <t>2020CS10404</t>
+  </si>
+  <si>
+    <t>vangalavamshi23@gmail.com</t>
+  </si>
+  <si>
+    <t>Sai Kiran Gunnala</t>
+  </si>
+  <si>
+    <t>2020MT60889</t>
+  </si>
+  <si>
+    <t>saikirangunnala16@gmail.com</t>
+  </si>
+  <si>
+    <t>Suneel Masarapu</t>
+  </si>
+  <si>
+    <t>2022MT11942</t>
+  </si>
+  <si>
+    <t>suneelmasarapu@gmail.com</t>
+  </si>
+  <si>
+    <t>Mahi</t>
+  </si>
+  <si>
+    <t>2023MS10224</t>
+  </si>
+  <si>
+    <t>mahirupavath07@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Sivaramakrishnareddy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021CE10509 </t>
+  </si>
+  <si>
+    <t>tallasivaramakrishna@gmail.com</t>
+  </si>
+  <si>
+    <t>Sai Niketh</t>
+  </si>
+  <si>
+    <t>2020MT60895</t>
+  </si>
+  <si>
+    <t>sainiketh2002@gmail.com</t>
+  </si>
+  <si>
+    <t>Himasindhu Appili</t>
+  </si>
+  <si>
+    <t>2020MT10809</t>
+  </si>
+  <si>
+    <t>sindhu.appili@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sindhusri Rongali </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023ME11102 </t>
+  </si>
+  <si>
+    <t>sindhusrirongali@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deekshitha Palla </t>
+  </si>
+  <si>
+    <t>2023CE11034</t>
+  </si>
+  <si>
+    <t>deekshithapalla09@gmail.com</t>
+  </si>
+  <si>
+    <t>Deepika Parimi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023ME11018 </t>
+  </si>
+  <si>
+    <t>deepikaparimi0302@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanishka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022ME21350 </t>
+  </si>
+  <si>
+    <t>thanishkalakavath@gmail.com</t>
+  </si>
+  <si>
+    <t>Nithin Sai Nagelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020CS10361 </t>
+  </si>
+  <si>
+    <t>nagellinithin1209@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dharavath Ashvitha </t>
+  </si>
+  <si>
+    <t>2022CS11132</t>
+  </si>
+  <si>
+    <t>dharavathashvithanaik@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimmala Abhilokesh </t>
+  </si>
+  <si>
+    <t>2020CS10364</t>
+  </si>
+  <si>
+    <t>abhilokeshnimmala1410@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jatothu Nenu Naik </t>
+  </si>
+  <si>
+    <t>2021CS10589</t>
+  </si>
+  <si>
+    <t>nenunaik001@gmail.com</t>
+  </si>
+  <si>
+    <t>Ajmeera Gagan</t>
+  </si>
+  <si>
+    <t>2022TT12208</t>
+  </si>
+  <si>
+    <t>theboysiniit@gmail.com</t>
+  </si>
+  <si>
+    <t>Medepalli Renuka Vashisth</t>
+  </si>
+  <si>
+    <t>2022ME12014</t>
+  </si>
+  <si>
+    <t>renukavashisth2005@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaya Chandran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021MT10258 </t>
+  </si>
+  <si>
+    <t>jayachandranmiriyala@gmail.com</t>
+  </si>
+  <si>
+    <t>Pavan</t>
+  </si>
+  <si>
+    <t>2022ch11473</t>
+  </si>
+  <si>
+    <t>pavanmuanavath91@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sushma Banothu </t>
+  </si>
+  <si>
+    <t>2021am11209</t>
+  </si>
+  <si>
+    <t>sushmabonothu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satvik prasad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022MT11279 </t>
+  </si>
+  <si>
+    <t>satvikprasad05@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harsha </t>
+  </si>
+  <si>
+    <t>2020MT10846</t>
+  </si>
+  <si>
+    <t>pssharsha963@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnathi Suneel Mundlapati </t>
+  </si>
+  <si>
+    <t>2020MT60883</t>
+  </si>
+  <si>
+    <t>unnathisuneelm@gmail.com</t>
+  </si>
+  <si>
+    <t>Revanth Vasireddi</t>
+  </si>
+  <si>
+    <t>2020CS10407</t>
+  </si>
+  <si>
+    <t>vasireddirevanth12345@gmail.com</t>
+  </si>
+  <si>
+    <t>Anudeep</t>
+  </si>
+  <si>
+    <t>2019CHZ8666</t>
+  </si>
+  <si>
+    <t>durga.anudeep@gmail.com</t>
+  </si>
+  <si>
+    <t>Supraja Kolli</t>
+  </si>
+  <si>
+    <t>2020BEZ8516</t>
+  </si>
+  <si>
+    <t>kllsupraja@gmail.com</t>
+  </si>
+  <si>
+    <t>Dasari Abhilash</t>
+  </si>
+  <si>
+    <t>2020BEZ8510</t>
+  </si>
+  <si>
+    <t>abhilashdasari.10@gmail.com</t>
+  </si>
+  <si>
+    <t>Voora Akash</t>
+  </si>
+  <si>
+    <t>2021CS10104</t>
+  </si>
+  <si>
+    <t>akashvoora@gmail.com</t>
+  </si>
+  <si>
+    <t>Akshay Reddy Vellapalem</t>
+  </si>
+  <si>
+    <t>2020MT10868</t>
+  </si>
+  <si>
+    <t>gamernoinfinity@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahul Koutilya </t>
+  </si>
+  <si>
+    <t>2018ME10654</t>
+  </si>
+  <si>
+    <t>koutilvydya26@gmail.com</t>
+  </si>
+  <si>
+    <t>Vivekananda</t>
+  </si>
+  <si>
+    <t>2020PH10736</t>
+  </si>
+  <si>
+    <t>vivekanandayadla@gmail.com</t>
+  </si>
+  <si>
+    <t>Vaddi Aditya</t>
+  </si>
+  <si>
+    <t>2020CS50446</t>
+  </si>
+  <si>
+    <t>vaddiaditya3@gmail.com</t>
+  </si>
+  <si>
+    <t>భవ్య</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023MT10331 </t>
+  </si>
+  <si>
+    <t>bhavyakesavapatnam@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rathod Rajeshwari </t>
+  </si>
+  <si>
+    <t>2022CH71043</t>
+  </si>
+  <si>
+    <t>nenavathrajeshwari634@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varanasi Yaswanth Krishna </t>
+  </si>
+  <si>
+    <t>2020CS10406</t>
+  </si>
+  <si>
+    <t>yaswanthkrishnavaranasi@gmail.com</t>
+  </si>
+  <si>
+    <t>Sriharshitha</t>
+  </si>
+  <si>
+    <t>2020CS10345</t>
+  </si>
+  <si>
+    <t>esriharshitha03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bankuru Venkata Soma Sekhar </t>
+  </si>
+  <si>
+    <t>2020CS10332</t>
+  </si>
+  <si>
+    <t>bvssekhar1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tharun bhukya </t>
+  </si>
+  <si>
+    <t>2021BB10370</t>
+  </si>
+  <si>
+    <t>tharunb2865@gmail.com</t>
+  </si>
+  <si>
+    <t>Gattu Sri Harshitha</t>
+  </si>
+  <si>
+    <t>2020CE10238</t>
+  </si>
+  <si>
+    <t>gattusriharshitha02@gmail.com</t>
+  </si>
+  <si>
+    <t>Hitesh</t>
+  </si>
+  <si>
+    <t>2020CS10414</t>
+  </si>
+  <si>
+    <t>hitesh.yeruva@gmail.com</t>
+  </si>
+  <si>
+    <t>Bodisetty Sainath</t>
+  </si>
+  <si>
+    <t>2020CS50421</t>
+  </si>
+  <si>
+    <t>sainath3371@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charishma </t>
+  </si>
+  <si>
+    <t>2022EE11174</t>
+  </si>
+  <si>
+    <t>umasricharishma.iitdelhi@gmail.com</t>
+  </si>
+  <si>
+    <t>Pavan naik</t>
+  </si>
+  <si>
+    <t>2023BB10396</t>
+  </si>
+  <si>
+    <t>banothupavannaik4@gmail.com</t>
+  </si>
+  <si>
+    <t>Bolledhu Sree Divya</t>
+  </si>
+  <si>
+    <t>2020EE10483</t>
+  </si>
+  <si>
+    <t>sreedivyab03@gmail.com</t>
+  </si>
+  <si>
+    <t>Tanmai Merugu</t>
+  </si>
+  <si>
+    <t>2021EE10149</t>
+  </si>
+  <si>
+    <t>merugutanmai@gmail.com</t>
+  </si>
+  <si>
+    <t>Mannepalli Chandra sekhar</t>
+  </si>
+  <si>
+    <t>2020MT10818</t>
+  </si>
+  <si>
+    <t>chandrasekharm117@gmail.com</t>
+  </si>
+  <si>
+    <t>Gampala Navya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020EE30595 </t>
+  </si>
+  <si>
+    <t>navyagampala226@gmail.com</t>
+  </si>
+  <si>
+    <t>Dharavath Shivaji</t>
+  </si>
+  <si>
+    <t>2023ch70398</t>
+  </si>
+  <si>
+    <t>kalivetibindhu@gmail.com</t>
+  </si>
+  <si>
+    <t>Gutti Vinay Kumar</t>
+  </si>
+  <si>
+    <t>2023CS10859</t>
+  </si>
+  <si>
+    <t>gvk23216294@gmail.com</t>
+  </si>
+  <si>
+    <t>Kumbha surendra babu</t>
+  </si>
+  <si>
+    <t>2023ms10843</t>
+  </si>
+  <si>
+    <t>kumbhasurendrababu123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuthi Sai Kushwanth </t>
+  </si>
+  <si>
+    <t>2021EE10144</t>
+  </si>
+  <si>
+    <t>nuthisankarrao999@gmail.com</t>
+  </si>
+  <si>
+    <t>Krishna sendhvil</t>
+  </si>
+  <si>
+    <t>2022EE11700</t>
+  </si>
+  <si>
+    <t>krishnasendhvil123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perugu Krishna Chaitanya Yadav </t>
+  </si>
+  <si>
+    <t>2020EE10521</t>
+  </si>
+  <si>
+    <t>perugukrishnachaitanya6@gmail.com</t>
+  </si>
+  <si>
+    <t>Krishnadeep reddy</t>
+  </si>
+  <si>
+    <t>2021me21067</t>
+  </si>
+  <si>
+    <t>krishnadeep.w.reddy@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venugopal </t>
+  </si>
+  <si>
+    <t>2020eez8417</t>
+  </si>
+  <si>
+    <t>venubathala2@gmail.com</t>
+  </si>
+  <si>
+    <t>Kalavala Navya</t>
+  </si>
+  <si>
+    <t>2022CS51653</t>
+  </si>
+  <si>
+    <t>kalavalanavya82@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanjana Bandlamudi </t>
+  </si>
+  <si>
+    <t>2023ES10422</t>
+  </si>
+  <si>
+    <t>sanjanabandlamudi7@gmail.com</t>
+  </si>
+  <si>
+    <t>Vivek Kunchakurthy</t>
+  </si>
+  <si>
+    <t>2023CS11029</t>
+  </si>
+  <si>
+    <t>vivekkunch@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikhil Reddy </t>
+  </si>
+  <si>
+    <t>2023MT61078</t>
+  </si>
+  <si>
+    <t>nikhil07reddy2005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surya Narayana Yerramilli </t>
+  </si>
+  <si>
+    <t>2022MSP2517</t>
+  </si>
+  <si>
+    <t>suryateja25798@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chethan Pothamsetty </t>
+  </si>
+  <si>
+    <t>2021CS10561</t>
+  </si>
+  <si>
+    <t>chethanpothamsetty1016@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raghuveer lunavath </t>
+  </si>
+  <si>
+    <t>2022TT12204</t>
+  </si>
+  <si>
+    <t>rathodkiran2808@gmail.com</t>
+  </si>
+  <si>
+    <t>Vadlapudi Manoj</t>
+  </si>
+  <si>
+    <t>2021MT10245</t>
+  </si>
+  <si>
+    <t>manojvadlapudi4@gmail.com</t>
+  </si>
+  <si>
+    <t>Bindhu</t>
+  </si>
+  <si>
+    <t>2023ME20514</t>
+  </si>
+  <si>
+    <t>sahasrakeloth@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gayatri </t>
+  </si>
+  <si>
+    <t>2022CEP2763</t>
+  </si>
+  <si>
+    <t>spkgayatri.kallakuri@gmail.com</t>
+  </si>
+  <si>
+    <t>Purna Chandra Sekhar V</t>
+  </si>
+  <si>
+    <t>2021MT60270</t>
+  </si>
+  <si>
+    <t>purnachandrasekharv@gmail.com</t>
+  </si>
+  <si>
+    <t>Nandha kishore naik</t>
+  </si>
+  <si>
+    <t>2022TT12224</t>
+  </si>
+  <si>
+    <t>pawarnandhakishorenaik@gmail.com</t>
+  </si>
+  <si>
+    <t>Raajita Bhamidipaty</t>
+  </si>
+  <si>
+    <t>2022MCS2053</t>
+  </si>
+  <si>
+    <t>bhamidipatyraajita81@gmail.com</t>
+  </si>
+  <si>
+    <t>Mounika</t>
+  </si>
+  <si>
+    <t>2022CRF2643</t>
+  </si>
+  <si>
+    <t>mounika.care@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravi </t>
+  </si>
+  <si>
+    <t>2022bb11420</t>
+  </si>
+  <si>
+    <t>anonimouse1431@gmail.com</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t>2021EE10668</t>
+  </si>
+  <si>
+    <t>saivishal0495@gmail.com</t>
+  </si>
+  <si>
+    <t>JOY SUJEETH</t>
+  </si>
+  <si>
+    <t>2023MT10444</t>
+  </si>
+  <si>
+    <t>joysujeeth2006@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnapika Indla </t>
+  </si>
+  <si>
+    <t>2023BB10049</t>
+  </si>
+  <si>
+    <t>gnapikaindla.13@gmail.com</t>
+  </si>
+  <si>
+    <t>Suchith</t>
+  </si>
+  <si>
+    <t>2021CS10572</t>
+  </si>
+  <si>
+    <t>suchithiitd0572@gmail.com</t>
+  </si>
+  <si>
+    <t>Mythravarun Bojanapally</t>
+  </si>
+  <si>
+    <t>2021CS10573</t>
+  </si>
+  <si>
+    <t>mythravarunbojanapally811@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel Arun Kumar </t>
+  </si>
+  <si>
+    <t>2021EE10159</t>
+  </si>
+  <si>
+    <t>joel.yenubotula@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snithik </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021CS50611 </t>
+  </si>
+  <si>
+    <t>snithik23@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satish Kumar Paturi </t>
+  </si>
+  <si>
+    <t>2019EEZ8562</t>
+  </si>
+  <si>
+    <t>satishpaturi341@gmail.com</t>
+  </si>
+  <si>
+    <t>వెంకట సాయి సూర్య విద్యా చరణ్ బోళెం</t>
+  </si>
+  <si>
+    <t>2020CS10334</t>
+  </si>
+  <si>
+    <t>vcbolem01@gmail.com</t>
+  </si>
+  <si>
+    <t>Manasa</t>
+  </si>
+  <si>
+    <t>2020CH10109</t>
+  </si>
+  <si>
+    <t>manasapaidisetty6@gmail.com</t>
+  </si>
+  <si>
+    <t>K.mahija</t>
+  </si>
+  <si>
+    <t>2023MT10644</t>
+  </si>
+  <si>
+    <t>konerumahija17@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rakshitha Kondapalli </t>
+  </si>
+  <si>
+    <t>2020CE10255</t>
+  </si>
+  <si>
+    <t>kondapallirakshitha2003@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anisha Kalivarapu </t>
+  </si>
+  <si>
+    <t>2023ME10933</t>
+  </si>
+  <si>
+    <t>anishakalivarapu@gmail.com</t>
+  </si>
+  <si>
+    <t>Bhavana</t>
+  </si>
+  <si>
+    <t>2023MT60210</t>
+  </si>
+  <si>
+    <t>bhavanavelamala123@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hasika </t>
+  </si>
+  <si>
+    <t>2023PH11084</t>
+  </si>
+  <si>
+    <t>basireddygarihasika@gmail.com</t>
+  </si>
+  <si>
+    <t>Deepika kasani</t>
+  </si>
+  <si>
+    <t>2023EE31200</t>
+  </si>
+  <si>
+    <t>deepika19249@gmail.com</t>
+  </si>
+  <si>
+    <t>K.Laasya Sri</t>
+  </si>
+  <si>
+    <t>2021ME20295</t>
+  </si>
+  <si>
+    <t>kollisrinivasarao765@gmail.com</t>
+  </si>
+  <si>
+    <t>Durgadevi</t>
+  </si>
+  <si>
+    <t>2021ME11023</t>
+  </si>
+  <si>
+    <t>durgadevi.afr@gmail.com</t>
+  </si>
+  <si>
+    <t>Bijanapally Tarun</t>
+  </si>
+  <si>
+    <t>2020EE30588</t>
+  </si>
+  <si>
+    <t>btarun1457@gmail.com</t>
+  </si>
+  <si>
+    <t>Kethavath Arun</t>
+  </si>
+  <si>
+    <t>2023CS10342</t>
+  </si>
+  <si>
+    <t>kethavatharun7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mudavath Sai Nikhil </t>
+  </si>
+  <si>
+    <t>2022CS11633</t>
+  </si>
+  <si>
+    <t>sainikhilmudavath@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rutvik Bodicharla </t>
+  </si>
+  <si>
+    <t>2020CS10420</t>
+  </si>
+  <si>
+    <t>brutvik2000@gmail.com</t>
+  </si>
+  <si>
+    <t>Shaurya</t>
+  </si>
+  <si>
+    <t>2020EE10508</t>
+  </si>
+  <si>
+    <t>shauryamadukuri@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santosh Kumar </t>
+  </si>
+  <si>
+    <t>2020cez8313</t>
+  </si>
+  <si>
+    <t>sasanapurisantoshkumar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Sai Srinivas </t>
+  </si>
+  <si>
+    <t>2022CS11620</t>
+  </si>
+  <si>
+    <t>saisrinivas410a@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manasa Mudigonda </t>
+  </si>
+  <si>
+    <t>2022crf2654</t>
+  </si>
+  <si>
+    <t>manasamudigonda@gmail.com</t>
+  </si>
+  <si>
+    <t>Devarakonda Ronith Kumar</t>
+  </si>
+  <si>
+    <t>2020EE10486</t>
+  </si>
+  <si>
+    <t>ronithkumar2003@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berala Mohan Gopi Nadh </t>
+  </si>
+  <si>
+    <t>2022EEE2011</t>
+  </si>
+  <si>
+    <t>bmgnadh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B Saiteja </t>
+  </si>
+  <si>
+    <t>2022EEN2123</t>
+  </si>
+  <si>
+    <t>mailmebsai01@gmail.com</t>
+  </si>
+  <si>
+    <t>Shaik Kareem</t>
+  </si>
+  <si>
+    <t>2023EET2194</t>
+  </si>
+  <si>
+    <t>shaikkareem.28072002@gmail.com</t>
+  </si>
+  <si>
+    <t>Nithin</t>
+  </si>
+  <si>
+    <t>2021EE30749</t>
+  </si>
+  <si>
+    <t>nithinbanoth927@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karri Lakshmi yamini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020MT60881 </t>
+  </si>
+  <si>
+    <t>yaminik355@gmail.com</t>
+  </si>
+  <si>
+    <t>Raparthi Akshitha</t>
+  </si>
+  <si>
+    <t>2020EE10538</t>
+  </si>
+  <si>
+    <t>akshitha.raparthi22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajesh killampallli </t>
+  </si>
+  <si>
+    <t>2023ASZ8484</t>
+  </si>
+  <si>
+    <t>rajesh70530@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mokshavi</t>
+  </si>
+  <si>
+    <t>2021MT10909</t>
+  </si>
+  <si>
+    <t>mokshavireddy18@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakshman </t>
+  </si>
+  <si>
+    <t>2023AM10062</t>
+  </si>
+  <si>
+    <t>nayaklakshman107@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hela Ambati </t>
+  </si>
+  <si>
+    <t>2022AMY7559</t>
+  </si>
+  <si>
+    <t>helaambati@gmail.com</t>
+  </si>
+  <si>
+    <t>Shiva Kumar Vallala</t>
+  </si>
+  <si>
+    <t>2020MT10848</t>
+  </si>
+  <si>
+    <t>shivakumarvallala.757@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katravath Sai Kiran </t>
+  </si>
+  <si>
+    <t>2023TT10053</t>
+  </si>
+  <si>
+    <t>katravathkiran18@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishna Sahithi </t>
+  </si>
+  <si>
+    <t>2022AMY7558</t>
+  </si>
+  <si>
+    <t>pappusahithi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sathya umesh chandra </t>
+  </si>
+  <si>
+    <t>2022CS11111</t>
+  </si>
+  <si>
+    <t>umeshkanala22@gmail.com</t>
+  </si>
+  <si>
+    <t>Shivani vangala</t>
+  </si>
+  <si>
+    <t>2021CE10533</t>
+  </si>
+  <si>
+    <t>vangalashivani4002@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mamidisetti Amrutha </t>
+  </si>
+  <si>
+    <t>2021EE30738</t>
+  </si>
+  <si>
+    <t>amruthamamidisetti101213@gmail.com</t>
+  </si>
+  <si>
+    <t>Sri hari</t>
+  </si>
+  <si>
+    <t>2020AMZ8474</t>
+  </si>
+  <si>
+    <t>sri1998hari@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garisapati Yaswanth </t>
+  </si>
+  <si>
+    <t>2020ME10931</t>
+  </si>
+  <si>
+    <t>garisapatiyaswanth@gmail.com</t>
+  </si>
+  <si>
+    <t>Kanakala Anil</t>
+  </si>
+  <si>
+    <t>2022JID2318</t>
+  </si>
+  <si>
+    <t>anil.kanakala@gmail.com</t>
+  </si>
+  <si>
+    <t>P.REDDY SAI GAGAN</t>
+  </si>
+  <si>
+    <t>2022EEE2022</t>
+  </si>
+  <si>
+    <t>pulikuntareddysaigagan111@gmail.com</t>
+  </si>
+  <si>
+    <t>SAHASRA</t>
+  </si>
+  <si>
+    <t>2023CE10573</t>
+  </si>
+  <si>
+    <t>ishwarya25805@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goutham Srinivas </t>
+  </si>
+  <si>
+    <t>2020EE10495</t>
+  </si>
+  <si>
+    <t>ggouthamsrinivas2002@gmail.com</t>
+  </si>
+  <si>
+    <t>T.V.S.Praveen</t>
+  </si>
+  <si>
+    <t>2023BB10620</t>
+  </si>
+  <si>
+    <t>tvspraveen28@gmail.com</t>
+  </si>
+  <si>
+    <t>Maddala veera venkata Mohan</t>
+  </si>
+  <si>
+    <t>2023EE10558</t>
+  </si>
+  <si>
+    <t>maddalamohan1477@gmail.com</t>
+  </si>
+  <si>
+    <t>Riyaz</t>
+  </si>
+  <si>
+    <t>2023CRF2601</t>
+  </si>
+  <si>
+    <t>riyazbajis@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chunduru Yagneshwara Naga Venkata Hanumath </t>
+  </si>
+  <si>
+    <t>2022CS11608</t>
+  </si>
+  <si>
+    <t>chunduruhanumath2005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surepalli Suraj </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022PHM2624 </t>
+  </si>
+  <si>
+    <t>surajsurepally@gmail.com</t>
+  </si>
+  <si>
+    <t>Kavya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021CE10536 </t>
+  </si>
+  <si>
+    <t>kavyaerravatti0908@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siri Dharan </t>
+  </si>
+  <si>
+    <t>2023CS10771</t>
+  </si>
+  <si>
+    <t>katarusiridharan@gmail.com</t>
+  </si>
+  <si>
+    <t>Teja</t>
+  </si>
+  <si>
+    <t>2023MEP2129</t>
+  </si>
+  <si>
+    <t>tejanani8143@gmail.com</t>
+  </si>
+  <si>
+    <t>Komal Gumma</t>
+  </si>
+  <si>
+    <t>2021EE10677</t>
+  </si>
+  <si>
+    <t>ongkomal@gmail.com</t>
+  </si>
+  <si>
+    <t>vulasala jayanth</t>
+  </si>
+  <si>
+    <t>2023MT10687</t>
+  </si>
+  <si>
+    <t>iitdmt1230687@gmail.com</t>
+  </si>
+  <si>
+    <t>Lakshmipuram Charan Karthik</t>
+  </si>
+  <si>
+    <t>2023EE10481</t>
+  </si>
+  <si>
+    <t>jayanthphotos5@gmail.com</t>
+  </si>
+  <si>
+    <t>Nakka Jayanth</t>
+  </si>
+  <si>
+    <t>2023MT10034</t>
+  </si>
+  <si>
+    <t>jayanthnak@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meda Sadvik </t>
+  </si>
+  <si>
+    <t>2023CS11097</t>
+  </si>
+  <si>
+    <t>sadvik0216@gmail.com</t>
+  </si>
+  <si>
+    <t>Morla Chetan Sai</t>
+  </si>
+  <si>
+    <t>2023EE10176</t>
+  </si>
+  <si>
+    <t>chetansaimorla@gmail.com</t>
+  </si>
+  <si>
+    <t>G.Vinuthna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023CS11091 </t>
+  </si>
+  <si>
+    <t>1jan2k6@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOHAMMAD ANSAR </t>
+  </si>
+  <si>
+    <t>2023ME20407</t>
+  </si>
+  <si>
+    <t>ansarmohammad2203@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malpani Tushar </t>
+  </si>
+  <si>
+    <t>2023CS10093</t>
+  </si>
+  <si>
+    <t>tmk29112005@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anshika Dasari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023CS11054 </t>
+  </si>
+  <si>
+    <t>anshikadasari04@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kowshik </t>
+  </si>
+  <si>
+    <t>2023EE30511</t>
+  </si>
+  <si>
+    <t>kowshiknadiutentu1713@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srinidhi Yamagouni </t>
+  </si>
+  <si>
+    <t>2023MT10993</t>
+  </si>
+  <si>
+    <t>srinidhiyamagouni.2006@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patnala Naga Sai </t>
+  </si>
+  <si>
+    <t>2022EEN2119</t>
+  </si>
+  <si>
+    <t>pnagasai21@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sai Teja </t>
+  </si>
+  <si>
+    <t>2022EEE2709</t>
+  </si>
+  <si>
+    <t>saitejap1234@gmail.com</t>
+  </si>
+  <si>
+    <t>Pushpak</t>
+  </si>
+  <si>
+    <t>2023cs10492</t>
+  </si>
+  <si>
+    <t>p9235634@gmail.com</t>
+  </si>
+  <si>
+    <t>Namratha B</t>
+  </si>
+  <si>
+    <t>2023AMX5530</t>
+  </si>
+  <si>
+    <t>namratharaghavan202@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naveen Chaitanya </t>
+  </si>
+  <si>
+    <t>2022jtm2393</t>
+  </si>
+  <si>
+    <t>bruppuluri@gmail.com</t>
+  </si>
+  <si>
+    <t>Spandana</t>
+  </si>
+  <si>
+    <t>2020EE10489</t>
+  </si>
+  <si>
+    <t>spand990@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upola Yadagiri </t>
+  </si>
+  <si>
+    <t>2022AMA2292</t>
+  </si>
+  <si>
+    <t>yadagiriuppala10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manikala Tej Venkata Sai Tarun </t>
+  </si>
+  <si>
+    <t>2022AMA2288</t>
+  </si>
+  <si>
+    <t>mtvstarun4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poralla venkata Satheesh </t>
+  </si>
+  <si>
+    <t>2023CEZ8104</t>
+  </si>
+  <si>
+    <t>porallav@gmail.com</t>
+  </si>
+  <si>
+    <t>Somu Hitesh</t>
+  </si>
+  <si>
+    <t>2021CS10568</t>
+  </si>
+  <si>
+    <t>hiteshsomu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHARATH KUMAR REDDY GANDHAM </t>
+  </si>
+  <si>
+    <t>2023JCS2542</t>
+  </si>
+  <si>
+    <t>sharath.kumar.reddy47@gmail.com</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>2023EES2205</t>
+  </si>
+  <si>
+    <t>anilkoduri1@gmail.com</t>
+  </si>
+  <si>
+    <t>Sahil Ahammad Shaik</t>
+  </si>
+  <si>
+    <t>2023EEE2005</t>
+  </si>
+  <si>
+    <t>sahilahammedshaik@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varikuti Velugonda Reddy </t>
+  </si>
+  <si>
+    <t>2020CH70203</t>
+  </si>
+  <si>
+    <t>velugonda1605@gmail.com</t>
+  </si>
+  <si>
+    <t>Narendra Reddy</t>
+  </si>
+  <si>
+    <t>2019ASZ8070</t>
+  </si>
+  <si>
+    <t>prasadv640@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varshith Reddy </t>
+  </si>
+  <si>
+    <t>2021EE10142</t>
+  </si>
+  <si>
+    <t>rvarshith8@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shashi </t>
+  </si>
+  <si>
+    <t>2023TTF2251</t>
+  </si>
+  <si>
+    <t>shashipreetham333@gmail.com</t>
+  </si>
+  <si>
+    <t>Sai Kiran</t>
+  </si>
+  <si>
+    <t>2019CEZ8628</t>
+  </si>
+  <si>
+    <t>kuntlasaikiran@gmail.com</t>
+  </si>
+  <si>
+    <t>Viswanath Velamuri</t>
+  </si>
+  <si>
+    <t>2023CEZ8111</t>
+  </si>
+  <si>
+    <t>viswanath.velamuri1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaishnavi Pasumarti </t>
+  </si>
+  <si>
+    <t>2022CH71494</t>
+  </si>
+  <si>
+    <t>pasumarthivaishnavi13@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Devender </t>
+  </si>
+  <si>
+    <t>2022JID2320</t>
+  </si>
+  <si>
+    <t>devenderambati888@gmail.com</t>
+  </si>
+  <si>
+    <t>Penumala nitish kumar</t>
+  </si>
+  <si>
+    <t>2023EE10824</t>
+  </si>
+  <si>
+    <t>nitishpenumala03@gmail.com</t>
+  </si>
+  <si>
+    <t>Sidhartha Nayak</t>
+  </si>
+  <si>
+    <t>2022MS11911</t>
+  </si>
+  <si>
+    <t>sidhartha1234ua@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokesh </t>
+  </si>
+  <si>
+    <t>2022CH11034</t>
+  </si>
+  <si>
+    <t>sidhartha1234au@gmail.com</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>2022CS11125</t>
+  </si>
+  <si>
+    <t>robinsoniitd@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshtha </t>
+  </si>
+  <si>
+    <t>2023PH10632</t>
+  </si>
+  <si>
+    <t>kuparalaakshtha@gmail.com</t>
+  </si>
+  <si>
+    <t>Akula Jayanth</t>
+  </si>
+  <si>
+    <t>2020AM10637</t>
+  </si>
+  <si>
+    <t>akulajayanth830@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sai Keerthi </t>
+  </si>
+  <si>
+    <t>2022ME12056</t>
+  </si>
+  <si>
+    <t>keerthipawar004@gmail.com</t>
+  </si>
+  <si>
+    <t>V MUKESH</t>
+  </si>
+  <si>
+    <t>2020EE11191</t>
+  </si>
+  <si>
+    <t>vislavathmukesh6746@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -57,9 +2202,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -79,9 +2224,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,21 +2254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,10 +2261,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,6 +2277,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -140,8 +2293,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,7 +2346,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -177,39 +2353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +2369,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,97 +2429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +2453,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +2507,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,43 +2543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +2560,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,32 +2626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -509,6 +2643,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -520,148 +2665,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -672,7 +2817,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,15 +3139,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="G246" sqref="G246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="11.6"/>
+    <col min="3" max="3" width="17.8" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1012,46 +3161,3387 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="D199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D242">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId1" display="email-id" tooltip="mailto:bsroy309@gmail.com"/>
-    <hyperlink ref="C2" r:id="rId1" display="bsroy309@gmail.com" tooltip="mailto:bsroy309@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId2" display="umpriyatam@gmail.com"/>
-    <hyperlink ref="C4" r:id="rId3" display="rahulreddymandala2003@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
